--- a/CTAS.xlsx
+++ b/CTAS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08AA0B8-5F4D-49A7-B0C7-BC6C1DA21780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD4A7B0-B63E-4086-80C7-9DC34404D8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{F251087B-52A6-4D65-A029-73EBA2C6E29C}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{F251087B-52A6-4D65-A029-73EBA2C6E29C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
   <si>
     <t xml:space="preserve">Cintas </t>
   </si>
@@ -132,9 +132,6 @@
     <t>Tax Rate</t>
   </si>
   <si>
-    <t>% Other</t>
-  </si>
-  <si>
     <t>Gross Margin</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
   </si>
   <si>
     <t>GM Other</t>
-  </si>
-  <si>
-    <t>% Uniform Rental &amp; Facility Service</t>
   </si>
   <si>
     <t>Uniform Rental &amp; Facility Service</t>
@@ -210,21 +204,31 @@
     <t>Q325</t>
   </si>
   <si>
-    <t>Q525</t>
-  </si>
-  <si>
     <t>numbers in mio USD</t>
   </si>
   <si>
-    <t>FQ225</t>
+    <t>FQ325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Rental Growth</t>
+  </si>
+  <si>
+    <t>Other Growth</t>
+  </si>
+  <si>
+    <t>Stock Split: 4 for 1 in September 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0;\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -289,7 +293,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -300,8 +304,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -638,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1B1AAB-DE15-4BFB-9872-3F4DEA47ED33}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,13 +663,13 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J2" t="s">
         <v>1</v>
       </c>
       <c r="K2">
-        <v>203</v>
+        <v>218.5</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -672,10 +677,10 @@
         <v>2</v>
       </c>
       <c r="K3" s="5">
-        <v>403.54393199999998</v>
+        <v>403.78696300000001</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -687,7 +692,7 @@
       </c>
       <c r="K4" s="5">
         <f>K3*K2</f>
-        <v>81919.418195999999</v>
+        <v>88227.451415500007</v>
       </c>
       <c r="L4" s="1"/>
     </row>
@@ -702,7 +707,7 @@
         <v>122.395</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -714,7 +719,7 @@
         <v>2657.7709999999997</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -723,17 +728,22 @@
       </c>
       <c r="K7" s="5">
         <f>K4-K5+K6</f>
-        <v>84454.794195999988</v>
+        <v>90762.827415499996</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -748,11 +758,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC5E5BD-8069-4607-B39E-3C3E84BAF675}">
   <dimension ref="A1:AG175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,54 +802,54 @@
         <v>17</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>57</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="W2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="5">
         <v>1697.7719999999999</v>
@@ -873,7 +883,9 @@
       <c r="L3" s="5">
         <v>1990.41</v>
       </c>
-      <c r="M3" s="5"/>
+      <c r="M3" s="5">
+        <v>2021.144</v>
+      </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -905,7 +917,7 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" s="5">
         <v>0</v>
@@ -937,7 +949,9 @@
       <c r="L4" s="5">
         <v>0</v>
       </c>
-      <c r="M4" s="5"/>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
@@ -1003,7 +1017,9 @@
       <c r="L5" s="5">
         <v>571.37300000000005</v>
       </c>
-      <c r="M5" s="5"/>
+      <c r="M5" s="5">
+        <v>588.01499999999999</v>
+      </c>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
@@ -1077,7 +1093,9 @@
         <f t="shared" si="2"/>
         <v>2561.7830000000004</v>
       </c>
-      <c r="M6" s="6"/>
+      <c r="M6" s="6">
+        <v>2609.1590000000001</v>
+      </c>
       <c r="N6" s="6"/>
       <c r="O6" s="5"/>
       <c r="P6" s="6">
@@ -1122,7 +1140,7 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C7" s="5">
         <v>890.76599999999996</v>
@@ -1156,7 +1174,9 @@
       <c r="L7" s="5">
         <v>1014.052</v>
       </c>
-      <c r="M7" s="5"/>
+      <c r="M7" s="5">
+        <v>1009.66</v>
+      </c>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -1222,7 +1242,9 @@
       <c r="L8" s="5">
         <v>271.02800000000002</v>
       </c>
-      <c r="M8" s="5"/>
+      <c r="M8" s="5">
+        <v>280.15800000000002</v>
+      </c>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
@@ -1252,93 +1274,96 @@
       <c r="AF8" s="5"/>
       <c r="AG8" s="5"/>
     </row>
-    <row r="9" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="8" t="s">
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="5">
         <f t="shared" ref="C9:F9" si="5">C6-SUM(C7:C8)</f>
         <v>1028.1119999999999</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="5">
         <f t="shared" si="5"/>
         <v>1022.4470000000001</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="5">
         <f t="shared" ref="E9" si="6">E6-SUM(E7:E8)</f>
         <v>1034.0309999999999</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="5">
         <f t="shared" si="5"/>
         <v>1088.7780000000002</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="5">
         <f>G6-SUM(G7:G8)</f>
         <v>1141.5709999999999</v>
       </c>
-      <c r="H9" s="9">
-        <f t="shared" ref="H9:L9" si="7">H6-SUM(H7:H8)</f>
+      <c r="H9" s="5">
+        <f t="shared" ref="H9:K9" si="7">H6-SUM(H7:H8)</f>
         <v>1141.5479999999998</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="5">
         <f>I6-SUM(I7:I8)</f>
         <v>1187.8479999999997</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="5">
         <f t="shared" si="7"/>
         <v>1215.4490000000001</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="5">
         <f t="shared" si="7"/>
         <v>1252.1309999999999</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="5">
         <f>L6-SUM(L7:L8)</f>
         <v>1276.7030000000004</v>
       </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9">
+      <c r="M9" s="5">
+        <f>M6-SUM(M7:M8)</f>
+        <v>1319.3410000000001</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5">
         <f t="shared" ref="P9:T9" si="8">P6-SUM(P7:P8)</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="Q9" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R9" s="9">
+      <c r="R9" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S9" s="9">
+      <c r="S9" s="5">
         <f t="shared" si="8"/>
         <v>3314.6509999999998</v>
       </c>
-      <c r="T9" s="9">
+      <c r="T9" s="5">
         <f t="shared" si="8"/>
         <v>3632.2459999999992</v>
       </c>
-      <c r="U9" s="9">
+      <c r="U9" s="5">
         <f>U6-SUM(U7:U8)</f>
         <v>4173.3680000000004</v>
       </c>
-      <c r="V9" s="9">
+      <c r="V9" s="5">
         <f>V6-SUM(V7:V8)</f>
         <v>4686.4160000000002</v>
       </c>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="9"/>
-      <c r="AE9" s="9"/>
-      <c r="AF9" s="9"/>
-      <c r="AG9" s="9"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -1376,7 +1401,9 @@
       <c r="L10" s="5">
         <v>685.31299999999999</v>
       </c>
-      <c r="M10" s="5"/>
+      <c r="M10" s="5">
+        <v>709.48800000000006</v>
+      </c>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
@@ -1407,82 +1434,85 @@
       <c r="AG10" s="5"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="5">
         <f>C9-C10</f>
         <v>440.11999999999989</v>
       </c>
-      <c r="D11" s="9">
-        <f t="shared" ref="D11:L11" si="9">D9-D10</f>
+      <c r="D11" s="5">
+        <f t="shared" ref="D11:M11" si="9">D9-D10</f>
         <v>444.93400000000008</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="5">
         <f>E9-E10</f>
         <v>446.8119999999999</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="5">
         <f t="shared" si="9"/>
         <v>470.79800000000023</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="5">
         <f t="shared" si="9"/>
         <v>500.55599999999993</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="5">
         <f t="shared" si="9"/>
         <v>499.68299999999977</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="5">
         <f t="shared" ref="I11" si="10">I9-I10</f>
         <v>520.79999999999973</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="5">
         <f t="shared" si="9"/>
         <v>547.59400000000028</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="5">
         <f t="shared" si="9"/>
         <v>561.03099999999984</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="5">
         <f t="shared" si="9"/>
         <v>591.39000000000044</v>
       </c>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9">
+      <c r="M11" s="5">
+        <f t="shared" si="9"/>
+        <v>609.85300000000007</v>
+      </c>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5">
         <f t="shared" ref="P11:T11" si="11">P9-P10</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="Q11" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R11" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S11" s="9">
+      <c r="S11" s="5">
         <f t="shared" si="11"/>
         <v>1385.4919999999997</v>
       </c>
-      <c r="T11" s="9">
+      <c r="T11" s="5">
         <f t="shared" si="11"/>
         <v>1587.3699999999992</v>
       </c>
-      <c r="U11" s="9">
+      <c r="U11" s="5">
         <f>U9-U10</f>
         <v>1802.6640000000002</v>
       </c>
-      <c r="V11" s="9">
+      <c r="V11" s="5">
         <f>V9-V10</f>
         <v>2068.6330000000003</v>
       </c>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
@@ -1537,7 +1567,10 @@
         <f>-26.665+0.962</f>
         <v>-25.702999999999999</v>
       </c>
-      <c r="M12" s="5"/>
+      <c r="M12" s="5">
+        <f>1.349-24.764</f>
+        <v>-23.414999999999999</v>
+      </c>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
@@ -1615,7 +1648,10 @@
         <f>L11+L12</f>
         <v>565.68700000000047</v>
       </c>
-      <c r="M13" s="5"/>
+      <c r="M13" s="5">
+        <f>M11+M12</f>
+        <v>586.4380000000001</v>
+      </c>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5">
@@ -1694,7 +1730,9 @@
       <c r="L14" s="5">
         <v>117.19199999999999</v>
       </c>
-      <c r="M14" s="5"/>
+      <c r="M14" s="5">
+        <v>122.941</v>
+      </c>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
@@ -1725,82 +1763,85 @@
       <c r="AG14" s="5"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
+      <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="5">
         <f t="shared" ref="C15:E15" si="15">C13-C14</f>
         <v>351.68899999999991</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="5">
         <f t="shared" ref="D15" si="16">D13-D14</f>
         <v>324.29300000000006</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="5">
         <f t="shared" si="15"/>
         <v>325.82699999999988</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="5">
         <f t="shared" ref="F15" si="17">F13-F14</f>
         <v>346.18100000000015</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="5">
         <f t="shared" ref="G15:V15" si="18">G13-G14</f>
         <v>385.08499999999992</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="5">
         <f t="shared" si="18"/>
         <v>374.43299999999977</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="5">
         <f t="shared" ref="I15" si="19">I13-I14</f>
         <v>397.5079999999997</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="5">
         <f t="shared" si="18"/>
         <v>414.56600000000037</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="5">
         <f t="shared" si="18"/>
         <v>452.03299999999979</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="5">
         <f t="shared" si="18"/>
         <v>448.49500000000046</v>
       </c>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9">
+      <c r="M15" s="5">
+        <f t="shared" si="18"/>
+        <v>463.49700000000007</v>
+      </c>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="9">
+      <c r="Q15" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R15" s="9">
+      <c r="R15" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="S15" s="9">
+      <c r="S15" s="5">
         <f t="shared" si="18"/>
         <v>1110.9679999999998</v>
       </c>
-      <c r="T15" s="9">
+      <c r="T15" s="5">
         <f t="shared" si="18"/>
         <v>1235.7569999999992</v>
       </c>
-      <c r="U15" s="9">
+      <c r="U15" s="5">
         <f t="shared" si="18"/>
         <v>1347.9900000000002</v>
       </c>
-      <c r="V15" s="9">
+      <c r="V15" s="5">
         <f t="shared" si="18"/>
         <v>1571.5920000000001</v>
       </c>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
@@ -1848,41 +1889,45 @@
       <c r="B17" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="8">
         <v>3.45</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="8">
         <v>3.18</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="8">
         <v>3.19</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="8">
         <f>U17-SUM(C17:E17)</f>
         <v>3.3900000000000006</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="8">
         <v>3.76</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="8">
         <v>3.67</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="8">
         <v>3.9</v>
       </c>
-      <c r="J17" s="5">
-        <f>V17-SUM(G17:I17)</f>
-        <v>4.07</v>
-      </c>
-      <c r="K17" s="5">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="L17" s="5">
-        <f>+L15/L18</f>
+      <c r="J17" s="8">
+        <f t="shared" ref="J17:L17" si="20">+J15/J18</f>
+        <v>4.0782465839670285</v>
+      </c>
+      <c r="K17" s="8">
+        <f t="shared" si="20"/>
+        <v>1.1206077613775522</v>
+      </c>
+      <c r="L17" s="8">
+        <f t="shared" si="20"/>
         <v>1.1112886880204975</v>
       </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
+      <c r="M17" s="8">
+        <f>+M15/M18</f>
+        <v>1.1479261657036575</v>
+      </c>
+      <c r="N17" s="8"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -1916,45 +1961,43 @@
         <v>2</v>
       </c>
       <c r="C18" s="5">
-        <f t="shared" ref="C18:L18" si="20">C15/C17</f>
+        <f t="shared" ref="C18:K18" si="21">C15/C17</f>
         <v>101.93884057971012</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>101.97893081761008</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>102.14012539184949</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>102.11828908554575</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" si="20"/>
-        <v>102.41622340425531</v>
+        <v>407.58</v>
       </c>
       <c r="H18" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>102.02534059945498</v>
       </c>
       <c r="I18" s="5">
-        <f t="shared" si="20"/>
-        <v>101.92512820512813</v>
+        <v>405.91</v>
       </c>
       <c r="J18" s="5">
-        <f t="shared" si="20"/>
-        <v>101.85896805896814</v>
+        <v>101.65300000000001</v>
       </c>
       <c r="K18" s="5">
-        <f t="shared" si="20"/>
-        <v>403.60089285714264</v>
+        <v>403.38200000000001</v>
       </c>
       <c r="L18" s="5">
         <v>403.58100000000002</v>
       </c>
-      <c r="M18" s="5"/>
+      <c r="M18" s="5">
+        <v>403.76900000000001</v>
+      </c>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
@@ -2023,78 +2066,69 @@
     </row>
     <row r="20" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="7">
-        <f>C3/C6</f>
-        <v>0.78366399655843155</v>
-      </c>
-      <c r="D20" s="7">
-        <f>D3/D6</f>
-        <v>0.78625225187115666</v>
-      </c>
-      <c r="E20" s="7">
-        <f>E3/E6</f>
-        <v>0.78364199588490524</v>
-      </c>
-      <c r="F20" s="7">
-        <f>F3/F6</f>
-        <v>0.77619982919459241</v>
-      </c>
-      <c r="G20" s="7">
-        <f>G3/G6</f>
-        <v>0.77991785956718318</v>
-      </c>
-      <c r="H20" s="7">
-        <f>H3/H6</f>
-        <v>0.7784620160804181</v>
-      </c>
-      <c r="I20" s="7">
-        <f>I3/I6</f>
-        <v>0.7799281265312179</v>
-      </c>
-      <c r="J20" s="7">
-        <f>J3/J6</f>
-        <v>0.77346834295519695</v>
-      </c>
-      <c r="K20" s="7">
-        <f>K3/K6</f>
-        <v>0.77304487111581566</v>
-      </c>
-      <c r="L20" s="7">
-        <f>L3/L6</f>
-        <v>0.77696276382503893</v>
-      </c>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="10">
+        <f>+G3/C3-1</f>
+        <v>7.6013151353656605E-2</v>
+      </c>
+      <c r="H20" s="10">
+        <f t="shared" ref="H20:N20" si="22">+H3/D3-1</f>
+        <v>8.2196531318659005E-2</v>
+      </c>
+      <c r="I20" s="10">
+        <f t="shared" si="22"/>
+        <v>9.3509074010948989E-2</v>
+      </c>
+      <c r="J20" s="10">
+        <f t="shared" si="22"/>
+        <v>7.7816113863814707E-2</v>
+      </c>
+      <c r="K20" s="10">
+        <f t="shared" si="22"/>
+        <v>5.8579228990187859E-2</v>
+      </c>
+      <c r="L20" s="10">
+        <f t="shared" si="22"/>
+        <v>7.5582180788115183E-2</v>
+      </c>
+      <c r="M20" s="10">
+        <f t="shared" si="22"/>
+        <v>7.7000301602543342E-2</v>
+      </c>
+      <c r="N20" s="10">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
       <c r="O20" s="5"/>
-      <c r="P20" s="7" t="e">
-        <f>P3/P6</f>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7" t="e">
+        <f t="shared" ref="Q20:V20" si="23">+Q3/P3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q20" s="7" t="e">
-        <f>Q3/Q6</f>
+      <c r="R20" s="7" t="e">
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R20" s="7" t="e">
-        <f>R3/R6</f>
+      <c r="S20" s="7" t="e">
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S20" s="7">
-        <f>S3/S6</f>
-        <v>0.79951660544605785</v>
-      </c>
       <c r="T20" s="7">
-        <f>T3/T6</f>
-        <v>0.79279553181193008</v>
+        <f t="shared" si="23"/>
+        <v>9.4443366460256195E-2</v>
       </c>
       <c r="U20" s="7">
-        <f>U3/U6</f>
-        <v>0.78236283187547218</v>
+        <f t="shared" si="23"/>
+        <v>0.10762038741091207</v>
       </c>
       <c r="V20" s="7">
-        <f>V3/V6</f>
-        <v>0.77789918632767907</v>
+        <f>+V3/U3-1</f>
+        <v>8.2363098854161043E-2</v>
       </c>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
@@ -2110,78 +2144,69 @@
     </row>
     <row r="21" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="7">
-        <f>C5/C6</f>
-        <v>0.21633600344156861</v>
-      </c>
-      <c r="D21" s="7">
-        <f>D5/D6</f>
-        <v>0.21374774812884334</v>
-      </c>
-      <c r="E21" s="7">
-        <f>E5/E6</f>
-        <v>0.21635800411509482</v>
-      </c>
-      <c r="F21" s="7">
-        <f>F5/F6</f>
-        <v>0.22380017080540746</v>
-      </c>
-      <c r="G21" s="7">
-        <f>G5/G6</f>
-        <v>0.2200821404328169</v>
-      </c>
-      <c r="H21" s="7">
-        <f>H5/H6</f>
-        <v>0.22153798391958196</v>
-      </c>
-      <c r="I21" s="7">
-        <f>I5/I6</f>
-        <v>0.22007187346878218</v>
-      </c>
-      <c r="J21" s="7">
-        <f>J5/J6</f>
-        <v>0.22653165704480302</v>
-      </c>
-      <c r="K21" s="7">
-        <f>K5/K6</f>
-        <v>0.22695512888418434</v>
-      </c>
-      <c r="L21" s="7">
-        <f>L5/L6</f>
-        <v>0.22303723617496093</v>
-      </c>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
+        <v>59</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="10">
+        <f t="shared" ref="G21:J22" si="24">G5/C5-1</f>
+        <v>9.9903559343008652E-2</v>
+      </c>
+      <c r="H21" s="10">
+        <f t="shared" ref="H21" si="25">H5/D5-1</f>
+        <v>0.13286266512645439</v>
+      </c>
+      <c r="I21" s="10">
+        <f t="shared" ref="I21" si="26">I5/E5-1</f>
+        <v>0.11757604665052823</v>
+      </c>
+      <c r="J21" s="10">
+        <f t="shared" ref="J21" si="27">J5/F5-1</f>
+        <v>9.4823623756760567E-2</v>
+      </c>
+      <c r="K21" s="10">
+        <f t="shared" ref="K21" si="28">K5/G5-1</f>
+        <v>0.10134334293556813</v>
+      </c>
+      <c r="L21" s="10">
+        <f t="shared" ref="L21" si="29">L5/H5-1</f>
+        <v>8.4950677414148412E-2</v>
+      </c>
+      <c r="M21" s="10">
+        <f t="shared" ref="M21:M22" si="30">M5/I5-1</f>
+        <v>0.11044490313126154</v>
+      </c>
+      <c r="N21" s="10">
+        <f t="shared" ref="N21:N22" si="31">N5/J5-1</f>
+        <v>-1</v>
+      </c>
       <c r="O21" s="5"/>
-      <c r="P21" s="7" t="e">
-        <f t="shared" ref="P21:T21" si="21">1-P20</f>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7" t="e">
+        <f t="shared" ref="Q21:V21" si="32">+(Q4+Q5)/(+SUM(P4:P5))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q21" s="7" t="e">
-        <f t="shared" si="21"/>
+      <c r="R21" s="7" t="e">
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R21" s="7" t="e">
-        <f t="shared" si="21"/>
+      <c r="S21" s="7" t="e">
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S21" s="7">
-        <f t="shared" si="21"/>
-        <v>0.20048339455394215</v>
-      </c>
       <c r="T21" s="7">
-        <f t="shared" si="21"/>
-        <v>0.20720446818806992</v>
+        <f t="shared" si="32"/>
+        <v>0.14072325941958663</v>
       </c>
       <c r="U21" s="7">
-        <f>1-U20</f>
-        <v>0.21763716812452782</v>
+        <f t="shared" si="32"/>
+        <v>0.17890246202869609</v>
       </c>
       <c r="V21" s="7">
-        <f t="shared" ref="V21" si="22">1-V20</f>
-        <v>0.22210081367232093</v>
+        <f>+(V4+V5)/(+SUM(U4:U5))-1</f>
+        <v>0.11089996606969832</v>
       </c>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
@@ -2196,67 +2221,73 @@
       <c r="AG21" s="5"/>
     </row>
     <row r="22" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7">
-        <f t="shared" ref="G22:J22" si="23">G6/C6-1</f>
+      <c r="C22" s="6"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9">
+        <f t="shared" si="24"/>
         <v>8.1181506738661424E-2</v>
       </c>
-      <c r="H22" s="7">
-        <f t="shared" si="23"/>
+      <c r="H22" s="9">
+        <f t="shared" si="24"/>
         <v>9.3026303326469773E-2</v>
       </c>
-      <c r="I22" s="7">
-        <f t="shared" si="23"/>
+      <c r="I22" s="9">
+        <f t="shared" si="24"/>
         <v>9.8716156176340775E-2</v>
       </c>
-      <c r="J22" s="7">
-        <f t="shared" si="23"/>
+      <c r="J22" s="9">
+        <f t="shared" si="24"/>
         <v>8.1622397482830511E-2</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="9">
         <f>K6/G6-1</f>
         <v>6.7990846720999976E-2</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="9">
         <f>L6/H6-1</f>
         <v>7.7657658643004224E-2</v>
       </c>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="7" t="e">
-        <f t="shared" ref="Q22:T22" si="24">Q6/P6-1</f>
+      <c r="M22" s="9">
+        <f t="shared" si="30"/>
+        <v>8.4360517718385264E-2</v>
+      </c>
+      <c r="N22" s="9">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="9" t="e">
+        <f t="shared" ref="Q22:T22" si="33">Q6/P6-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R22" s="7" t="e">
-        <f t="shared" si="24"/>
+      <c r="R22" s="9" t="e">
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S22" s="7" t="e">
-        <f t="shared" si="24"/>
+      <c r="S22" s="9" t="e">
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T22" s="7">
-        <f t="shared" si="24"/>
+      <c r="T22" s="9">
+        <f t="shared" si="33"/>
         <v>0.10372171650033568</v>
       </c>
-      <c r="U22" s="7">
+      <c r="U22" s="9">
         <f>U6/T6-1</f>
         <v>0.12239035177343238</v>
       </c>
-      <c r="V22" s="7">
-        <f t="shared" ref="V22" si="25">V6/U6-1</f>
+      <c r="V22" s="9">
+        <f t="shared" ref="V22" si="34">V6/U6-1</f>
         <v>8.8573781822096187E-2</v>
       </c>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
@@ -2269,22 +2300,22 @@
     </row>
     <row r="23" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="7">
-        <f t="shared" ref="C23:F23" si="26">(C3-C7)/C3</f>
+        <f t="shared" ref="C23:F23" si="35">(C3-C7)/C3</f>
         <v>0.47533237678557544</v>
       </c>
       <c r="D23" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>0.46974626122888657</v>
       </c>
       <c r="E23" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>0.47091742344121917</v>
       </c>
       <c r="F23" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>0.47739348953251892</v>
       </c>
       <c r="G23" s="7">
@@ -2292,15 +2323,15 @@
         <v>0.48129514321295147</v>
       </c>
       <c r="H23" s="7">
-        <f t="shared" ref="H23:J23" si="27">(H3-H7)/H3</f>
+        <f t="shared" ref="H23:J23" si="36">(H3-H7)/H3</f>
         <v>0.47354288635437614</v>
       </c>
       <c r="I23" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>0.48833714688257007</v>
       </c>
       <c r="J23" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>0.48563512785228041</v>
       </c>
       <c r="K23" s="7">
@@ -2311,27 +2342,33 @@
         <f>(L3-L7)/L3</f>
         <v>0.49053109660823652</v>
       </c>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
+      <c r="M23" s="7">
+        <f t="shared" ref="M23:N23" si="37">(M3-M7)/M3</f>
+        <v>0.5004512296006618</v>
+      </c>
+      <c r="N23" s="7" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O23" s="5"/>
       <c r="P23" s="7" t="e">
-        <f t="shared" ref="P23:T23" si="28">(P3-P7)/P3</f>
+        <f t="shared" ref="P23:T23" si="38">(P3-P7)/P3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q23" s="7" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R23" s="7" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S23" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>0.47562267647538536</v>
       </c>
       <c r="T23" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>0.46740908112760915</v>
       </c>
       <c r="U23" s="7">
@@ -2339,7 +2376,7 @@
         <v>0.47337878218911345</v>
       </c>
       <c r="V23" s="7">
-        <f t="shared" ref="V23" si="29">(V3-V7)/V3</f>
+        <f t="shared" ref="V23" si="39">(V3-V7)/V3</f>
         <v>0.48225479320778991</v>
       </c>
       <c r="W23" s="5"/>
@@ -2356,22 +2393,22 @@
     </row>
     <row r="24" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="7">
-        <f t="shared" ref="C24:F24" si="30">(C5-C8)/C5</f>
+        <f t="shared" ref="C24:F24" si="40">(C5-C8)/C5</f>
         <v>0.47176123683008953</v>
       </c>
       <c r="D24" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>0.47150069589197863</v>
       </c>
       <c r="E24" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>0.47667579106877916</v>
       </c>
       <c r="F24" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>0.473846244119977</v>
       </c>
       <c r="G24" s="7">
@@ -2379,46 +2416,52 @@
         <v>0.50887770244711494</v>
       </c>
       <c r="H24" s="7">
-        <f t="shared" ref="H24:J24" si="31">(H5-H8)/H5</f>
+        <f t="shared" ref="H24:J24" si="41">(H5-H8)/H5</f>
         <v>0.5036448394049009</v>
       </c>
       <c r="I24" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>0.51255545001142511</v>
       </c>
       <c r="J24" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>0.51328372741158967</v>
       </c>
       <c r="K24" s="7">
-        <f t="shared" ref="K24:L24" si="32">(K5-K8)/K5</f>
+        <f t="shared" ref="K24:L24" si="42">(K5-K8)/K5</f>
         <v>0.52744351367155851</v>
       </c>
       <c r="L24" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0.52565486993610133</v>
       </c>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
+      <c r="M24" s="7">
+        <f t="shared" ref="M24:N24" si="43">(M5-M8)/M5</f>
+        <v>0.52355297058748496</v>
+      </c>
+      <c r="N24" s="7" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O24" s="5"/>
       <c r="P24" s="7" t="e">
-        <f t="shared" ref="P24:T24" si="33">(P4+P5-P8)/(P4+P5)</f>
+        <f t="shared" ref="P24:T24" si="44">(P4+P5-P8)/(P4+P5)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q24" s="7" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R24" s="7" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S24" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>0.42652946503419065</v>
       </c>
       <c r="T24" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>0.44344596765918326</v>
       </c>
       <c r="U24" s="7">
@@ -2426,7 +2469,7 @@
         <v>0.47346739016563305</v>
       </c>
       <c r="V24" s="7">
-        <f t="shared" ref="V24" si="34">(V4+V5-V8)/(V4+V5)</f>
+        <f t="shared" ref="V24" si="45">(V4+V5-V8)/(V4+V5)</f>
         <v>0.50965555292819431</v>
       </c>
       <c r="W24" s="5"/>
@@ -2443,22 +2486,22 @@
     </row>
     <row r="25" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="7">
-        <f t="shared" ref="C25:F25" si="35">C9/C6</f>
+        <f t="shared" ref="C25:F25" si="46">C9/C6</f>
         <v>0.47455981063987512</v>
       </c>
       <c r="D25" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>0.47012126768736168</v>
       </c>
       <c r="E25" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>0.47216329236807908</v>
       </c>
       <c r="F25" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>0.47659961540330342</v>
       </c>
       <c r="G25" s="7">
@@ -2466,46 +2509,52 @@
         <v>0.48736557188782109</v>
       </c>
       <c r="H25" s="7">
-        <f t="shared" ref="H25:J25" si="36">H9/H6</f>
+        <f t="shared" ref="H25:J25" si="47">H9/H6</f>
         <v>0.4802116123452313</v>
       </c>
       <c r="I25" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>0.49366691422437198</v>
       </c>
       <c r="J25" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>0.49189841092541897</v>
       </c>
       <c r="K25" s="7">
-        <f t="shared" ref="K25:L25" si="37">K9/K6</f>
+        <f t="shared" ref="K25:L25" si="48">K9/K6</f>
         <v>0.50053466059745266</v>
       </c>
       <c r="L25" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>0.49836500593531935</v>
       </c>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
+      <c r="M25" s="7">
+        <f t="shared" ref="M25:N25" si="49">M9/M6</f>
+        <v>0.50565757012125367</v>
+      </c>
+      <c r="N25" s="7" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O25" s="5"/>
       <c r="P25" s="7" t="e">
-        <f t="shared" ref="P25:T25" si="38">P9/P6</f>
+        <f t="shared" ref="P25:T25" si="50">P9/P6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q25" s="7" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R25" s="7" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S25" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>0.46578030279610022</v>
       </c>
       <c r="T25" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>0.46244381694525361</v>
       </c>
       <c r="U25" s="7">
@@ -2513,7 +2562,7 @@
         <v>0.47339806657819644</v>
       </c>
       <c r="V25" s="7">
-        <f t="shared" ref="V25" si="39">V9/V6</f>
+        <f t="shared" ref="V25" si="51">V9/V6</f>
         <v>0.48834052423693147</v>
       </c>
       <c r="W25" s="5"/>
@@ -2530,22 +2579,22 @@
     </row>
     <row r="26" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="7">
-        <f t="shared" ref="C26:F26" si="40">C11/C6</f>
+        <f t="shared" ref="C26:F26" si="52">C11/C6</f>
         <v>0.20315224786679059</v>
       </c>
       <c r="D26" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>0.2045807128557359</v>
       </c>
       <c r="E26" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>0.20402504856195425</v>
       </c>
       <c r="F26" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>0.20608622302493668</v>
       </c>
       <c r="G26" s="7">
@@ -2553,46 +2602,52 @@
         <v>0.21370003372710078</v>
       </c>
       <c r="H26" s="7">
-        <f t="shared" ref="H26:J26" si="41">H11/H6</f>
+        <f t="shared" ref="H26:J26" si="53">H11/H6</f>
         <v>0.21020016599521191</v>
       </c>
       <c r="I26" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>0.21644328982163782</v>
       </c>
       <c r="J26" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>0.22161408535635307</v>
       </c>
       <c r="K26" s="7">
-        <f t="shared" ref="K26:L26" si="42">K11/K6</f>
+        <f t="shared" ref="K26:L26" si="54">K11/K6</f>
         <v>0.22427003338280851</v>
       </c>
       <c r="L26" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="54"/>
         <v>0.23085093468104065</v>
       </c>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
+      <c r="M26" s="7">
+        <f t="shared" ref="M26:N26" si="55">M11/M6</f>
+        <v>0.23373546801862211</v>
+      </c>
+      <c r="N26" s="7" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O26" s="5"/>
       <c r="P26" s="7" t="e">
-        <f t="shared" ref="P26:T26" si="43">P11/P6</f>
+        <f t="shared" ref="P26:T26" si="56">P11/P6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q26" s="7" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R26" s="7" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S26" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="56"/>
         <v>0.19469165329368746</v>
       </c>
       <c r="T26" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="56"/>
         <v>0.20209794207341325</v>
       </c>
       <c r="U26" s="7">
@@ -2600,7 +2655,7 @@
         <v>0.20448176443824698</v>
       </c>
       <c r="V26" s="7">
-        <f t="shared" ref="V26" si="44">V11/V6</f>
+        <f t="shared" ref="V26" si="57">V11/V6</f>
         <v>0.21555861103107712</v>
       </c>
       <c r="W26" s="5"/>
@@ -2617,22 +2672,22 @@
     </row>
     <row r="27" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="7">
-        <f t="shared" ref="C27:F27" si="45">C15/C6</f>
+        <f t="shared" ref="C27:F27" si="58">C15/C6</f>
         <v>0.16233393369995391</v>
       </c>
       <c r="D27" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="58"/>
         <v>0.14910996488046577</v>
       </c>
       <c r="E27" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="58"/>
         <v>0.1487804031623946</v>
       </c>
       <c r="F27" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="58"/>
         <v>0.15153661394694881</v>
       </c>
       <c r="G27" s="7">
@@ -2640,46 +2695,52 @@
         <v>0.16440253935184193</v>
       </c>
       <c r="H27" s="7">
-        <f t="shared" ref="H27:J27" si="46">H15/H6</f>
+        <f t="shared" ref="H27:J27" si="59">H15/H6</f>
         <v>0.15751161987517118</v>
       </c>
       <c r="I27" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="59"/>
         <v>0.1652034163794539</v>
       </c>
       <c r="J27" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="59"/>
         <v>0.16777697511265993</v>
       </c>
       <c r="K27" s="7">
-        <f t="shared" ref="K27:L27" si="47">K15/K6</f>
+        <f t="shared" ref="K27:L27" si="60">K15/K6</f>
         <v>0.18069849259689941</v>
       </c>
       <c r="L27" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="60"/>
         <v>0.17507142486307403</v>
       </c>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
+      <c r="M27" s="7">
+        <f t="shared" ref="M27:N27" si="61">M15/M6</f>
+        <v>0.1776422977672116</v>
+      </c>
+      <c r="N27" s="7" t="e">
+        <f t="shared" si="61"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O27" s="5"/>
       <c r="P27" s="7" t="e">
-        <f t="shared" ref="P27:T27" si="48">P15/P6</f>
+        <f t="shared" ref="P27:T27" si="62">P15/P6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q27" s="7" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R27" s="7" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S27" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="62"/>
         <v>0.15611508162903961</v>
       </c>
       <c r="T27" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="62"/>
         <v>0.15733190535465261</v>
       </c>
       <c r="U27" s="7">
@@ -2687,7 +2748,7 @@
         <v>0.15290668346686492</v>
       </c>
       <c r="V27" s="7">
-        <f t="shared" ref="V27" si="49">V15/V6</f>
+        <f t="shared" ref="V27" si="63">V15/V6</f>
         <v>0.16376524430749803</v>
       </c>
       <c r="W27" s="5"/>
@@ -2707,19 +2768,19 @@
         <v>30</v>
       </c>
       <c r="C28" s="7">
-        <f t="shared" ref="C28:F28" si="50">C14/C13</f>
+        <f t="shared" ref="C28:F28" si="64">C14/C13</f>
         <v>0.14753426815818502</v>
       </c>
       <c r="D28" s="7">
-        <f t="shared" si="50"/>
+        <f t="shared" si="64"/>
         <v>0.22111980555195285</v>
       </c>
       <c r="E28" s="7">
-        <f t="shared" si="50"/>
+        <f t="shared" si="64"/>
         <v>0.22119149261651289</v>
       </c>
       <c r="F28" s="7">
-        <f t="shared" si="50"/>
+        <f t="shared" si="64"/>
         <v>0.22358136582718244</v>
       </c>
       <c r="G28" s="7">
@@ -2727,46 +2788,52 @@
         <v>0.19173484679934685</v>
       </c>
       <c r="H28" s="7">
-        <f t="shared" ref="H28:J28" si="51">H14/H13</f>
+        <f t="shared" ref="H28:J28" si="65">H14/H13</f>
         <v>0.20982691163250072</v>
       </c>
       <c r="I28" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="65"/>
         <v>0.19889560661023792</v>
       </c>
       <c r="J28" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="65"/>
         <v>0.21355467912637824</v>
       </c>
       <c r="K28" s="7">
-        <f t="shared" ref="K28:L28" si="52">K14/K13</f>
+        <f t="shared" ref="K28:L28" si="66">K14/K13</f>
         <v>0.15769516008213744</v>
       </c>
       <c r="L28" s="7">
-        <f t="shared" si="52"/>
+        <f t="shared" si="66"/>
         <v>0.20716756793067526</v>
       </c>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
+      <c r="M28" s="7">
+        <f t="shared" ref="M28:N28" si="67">M14/M13</f>
+        <v>0.20964023477332638</v>
+      </c>
+      <c r="N28" s="7" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O28" s="5"/>
       <c r="P28" s="7" t="e">
-        <f t="shared" ref="P28:T28" si="53">P14/P13</f>
+        <f t="shared" ref="P28:T28" si="68">P14/P13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q28" s="7" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R28" s="7" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S28" s="7">
-        <f t="shared" si="53"/>
+        <f t="shared" si="68"/>
         <v>0.13727908156014879</v>
       </c>
       <c r="T28" s="7">
-        <f t="shared" si="53"/>
+        <f t="shared" si="68"/>
         <v>0.17548479818090604</v>
       </c>
       <c r="U28" s="7">
@@ -2774,7 +2841,7 @@
         <v>0.20385577634087509</v>
       </c>
       <c r="V28" s="7">
-        <f t="shared" ref="V28" si="54">V14/V13</f>
+        <f t="shared" ref="V28" si="69">V14/V13</f>
         <v>0.20370686575785288</v>
       </c>
       <c r="W28" s="5"/>

--- a/CTAS.xlsx
+++ b/CTAS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD4A7B0-B63E-4086-80C7-9DC34404D8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80164BA-099A-45FA-BE64-3F1C96FC857C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{F251087B-52A6-4D65-A029-73EBA2C6E29C}"/>
   </bookViews>
@@ -207,9 +207,6 @@
     <t>numbers in mio USD</t>
   </si>
   <si>
-    <t>FQ325</t>
-  </si>
-  <si>
     <t>Q425</t>
   </si>
   <si>
@@ -220,6 +217,9 @@
   </si>
   <si>
     <t>Stock Split: 4 for 1 in September 2024</t>
+  </si>
+  <si>
+    <t>FQ425</t>
   </si>
 </sst>
 </file>
@@ -646,7 +646,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,7 +669,7 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>218.5</v>
+        <v>216.5</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -677,10 +677,10 @@
         <v>2</v>
       </c>
       <c r="K3" s="5">
-        <v>403.78696300000001</v>
+        <v>402.97792600000002</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -692,7 +692,7 @@
       </c>
       <c r="K4" s="5">
         <f>K3*K2</f>
-        <v>88227.451415500007</v>
+        <v>87244.720979000005</v>
       </c>
       <c r="L4" s="1"/>
     </row>
@@ -704,10 +704,10 @@
         <v>4</v>
       </c>
       <c r="K5" s="5">
-        <v>122.395</v>
+        <v>263.97300000000001</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -715,11 +715,10 @@
         <v>5</v>
       </c>
       <c r="K6" s="5">
-        <f>2026.963+630.808</f>
-        <v>2657.7709999999997</v>
+        <v>2424.9989999999998</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -728,7 +727,7 @@
       </c>
       <c r="K7" s="5">
         <f>K4-K5+K6</f>
-        <v>90762.827415499996</v>
+        <v>89405.746979000003</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -743,7 +742,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -759,10 +758,10 @@
   <dimension ref="A1:AG175"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,7 +810,7 @@
         <v>54</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>39</v>
@@ -886,7 +885,10 @@
       <c r="M3" s="5">
         <v>2021.144</v>
       </c>
-      <c r="N3" s="5"/>
+      <c r="N3" s="5">
+        <f>+W3-SUM(K3:M3)</f>
+        <v>2030.6800000000003</v>
+      </c>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -903,7 +905,9 @@
       <c r="V3" s="5">
         <v>7465.1989999999996</v>
       </c>
-      <c r="W3" s="5"/>
+      <c r="W3" s="5">
+        <v>7976.0730000000003</v>
+      </c>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
@@ -952,7 +956,9 @@
       <c r="M4" s="5">
         <v>0</v>
       </c>
-      <c r="N4" s="5"/>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
@@ -967,9 +973,11 @@
         <v>951.49599999999998</v>
       </c>
       <c r="V4" s="5">
-        <v>2131.4160000000002</v>
-      </c>
-      <c r="W4" s="5"/>
+        <v>1067.3340000000001</v>
+      </c>
+      <c r="W4" s="5">
+        <v>1218.0899999999999</v>
+      </c>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
@@ -1008,7 +1016,7 @@
         <v>529.53099999999995</v>
       </c>
       <c r="J5" s="5">
-        <f>V4-SUM(G5:I5)</f>
+        <f>+(V5+V4)-SUM(G5:I5)</f>
         <v>559.74500000000035</v>
       </c>
       <c r="K5" s="5">
@@ -1020,7 +1028,10 @@
       <c r="M5" s="5">
         <v>588.01499999999999</v>
       </c>
-      <c r="N5" s="5"/>
+      <c r="N5" s="5">
+        <f>+(W5+W4)-SUM(K5:M5)</f>
+        <v>636.97200000000021</v>
+      </c>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -1035,9 +1046,11 @@
         <v>967.14300000000003</v>
       </c>
       <c r="V5" s="5">
-        <v>0</v>
-      </c>
-      <c r="W5" s="5"/>
+        <v>1064.0820000000001</v>
+      </c>
+      <c r="W5" s="5">
+        <v>1146.018</v>
+      </c>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
@@ -1074,7 +1087,7 @@
         <v>2342.33</v>
       </c>
       <c r="H6" s="6">
-        <f t="shared" ref="H6:L6" si="2">H3+H5</f>
+        <f t="shared" ref="H6:N6" si="2">H3+H5</f>
         <v>2377.1769999999997</v>
       </c>
       <c r="I6" s="6">
@@ -1096,7 +1109,10 @@
       <c r="M6" s="6">
         <v>2609.1590000000001</v>
       </c>
-      <c r="N6" s="6"/>
+      <c r="N6" s="6">
+        <f>+N3+N4+N5</f>
+        <v>2667.6520000000005</v>
+      </c>
       <c r="O6" s="5"/>
       <c r="P6" s="6">
         <f t="shared" ref="P6:T6" si="3">SUM(P3:P5)</f>
@@ -1126,7 +1142,10 @@
         <f>SUM(V3:V5)</f>
         <v>9596.6149999999998</v>
       </c>
-      <c r="W6" s="5"/>
+      <c r="W6" s="6">
+        <f>SUM(W3:W5)</f>
+        <v>10340.181</v>
+      </c>
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
@@ -1177,7 +1196,10 @@
       <c r="M7" s="5">
         <v>1009.66</v>
       </c>
-      <c r="N7" s="5"/>
+      <c r="N7" s="5">
+        <f>+W7-SUM(K7:M7)</f>
+        <v>1036.0129999999999</v>
+      </c>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
@@ -1194,7 +1216,9 @@
       <c r="V7" s="5">
         <v>3865.0709999999999</v>
       </c>
-      <c r="W7" s="5"/>
+      <c r="W7" s="5">
+        <v>4040.8879999999999</v>
+      </c>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
@@ -1245,7 +1269,10 @@
       <c r="M8" s="5">
         <v>280.15800000000002</v>
       </c>
-      <c r="N8" s="5"/>
+      <c r="N8" s="5">
+        <f>+W8-SUM(K8:M8)</f>
+        <v>305.64999999999986</v>
+      </c>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
@@ -1262,7 +1289,9 @@
       <c r="V8" s="5">
         <v>1045.1279999999999</v>
       </c>
-      <c r="W8" s="5"/>
+      <c r="W8" s="5">
+        <v>1125.1289999999999</v>
+      </c>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
@@ -1323,7 +1352,10 @@
         <f>M6-SUM(M7:M8)</f>
         <v>1319.3410000000001</v>
       </c>
-      <c r="N9" s="5"/>
+      <c r="N9" s="5">
+        <f>N6-SUM(N7:N8)</f>
+        <v>1325.9890000000007</v>
+      </c>
       <c r="O9" s="5"/>
       <c r="P9" s="5">
         <f t="shared" ref="P9:T9" si="8">P6-SUM(P7:P8)</f>
@@ -1353,7 +1385,10 @@
         <f>V6-SUM(V7:V8)</f>
         <v>4686.4160000000002</v>
       </c>
-      <c r="W9" s="5"/>
+      <c r="W9" s="5">
+        <f>W6-SUM(W7:W8)</f>
+        <v>5174.1640000000007</v>
+      </c>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
@@ -1404,7 +1439,10 @@
       <c r="M10" s="5">
         <v>709.48800000000006</v>
       </c>
-      <c r="N10" s="5"/>
+      <c r="N10" s="5">
+        <f>+W10-SUM(K10:M10)</f>
+        <v>728.53700000000026</v>
+      </c>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
@@ -1421,7 +1459,9 @@
       <c r="V10" s="5">
         <v>2617.7829999999999</v>
       </c>
-      <c r="W10" s="5"/>
+      <c r="W10" s="5">
+        <v>2814.4380000000001</v>
+      </c>
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
@@ -1442,7 +1482,7 @@
         <v>440.11999999999989</v>
       </c>
       <c r="D11" s="5">
-        <f t="shared" ref="D11:M11" si="9">D9-D10</f>
+        <f t="shared" ref="D10:N11" si="9">D9-D10</f>
         <v>444.93400000000008</v>
       </c>
       <c r="E11" s="5">
@@ -1481,7 +1521,10 @@
         <f t="shared" si="9"/>
         <v>609.85300000000007</v>
       </c>
-      <c r="N11" s="5"/>
+      <c r="N11" s="5">
+        <f t="shared" si="9"/>
+        <v>597.45200000000045</v>
+      </c>
       <c r="O11" s="5"/>
       <c r="P11" s="5">
         <f t="shared" ref="P11:T11" si="11">P9-P10</f>
@@ -1511,7 +1554,10 @@
         <f>V9-V10</f>
         <v>2068.6330000000003</v>
       </c>
-      <c r="W11" s="5"/>
+      <c r="W11" s="5">
+        <f>W9-W10</f>
+        <v>2359.7260000000006</v>
+      </c>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
@@ -1571,7 +1617,10 @@
         <f>1.349-24.764</f>
         <v>-23.414999999999999</v>
       </c>
-      <c r="N12" s="5"/>
+      <c r="N12" s="5">
+        <f>+W12-SUM(K12:M12)</f>
+        <v>-22.037000000000006</v>
+      </c>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
@@ -1592,7 +1641,10 @@
         <f>-100.74+5.742</f>
         <v>-94.99799999999999</v>
       </c>
-      <c r="W12" s="5"/>
+      <c r="W12" s="5">
+        <f>-101.108+5.584</f>
+        <v>-95.524000000000001</v>
+      </c>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
@@ -1629,7 +1681,7 @@
         <v>476.43399999999991</v>
       </c>
       <c r="H13" s="5">
-        <f t="shared" ref="H13:V13" si="14">H11+H12</f>
+        <f t="shared" ref="H13:W13" si="14">H11+H12</f>
         <v>473.86199999999974</v>
       </c>
       <c r="I13" s="5">
@@ -1652,7 +1704,10 @@
         <f>M11+M12</f>
         <v>586.4380000000001</v>
       </c>
-      <c r="N13" s="5"/>
+      <c r="N13" s="5">
+        <f>N11+N12</f>
+        <v>575.41500000000042</v>
+      </c>
       <c r="O13" s="5"/>
       <c r="P13" s="5">
         <f t="shared" si="14"/>
@@ -1682,7 +1737,10 @@
         <f t="shared" si="14"/>
         <v>1973.6350000000002</v>
       </c>
-      <c r="W13" s="5"/>
+      <c r="W13" s="5">
+        <f t="shared" si="14"/>
+        <v>2264.2020000000007</v>
+      </c>
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
@@ -1733,7 +1791,10 @@
       <c r="M14" s="5">
         <v>122.941</v>
       </c>
-      <c r="N14" s="5"/>
+      <c r="N14" s="5">
+        <f>+W14-SUM(K14:M14)</f>
+        <v>127.15899999999999</v>
+      </c>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -1750,7 +1811,9 @@
       <c r="V14" s="5">
         <v>402.04300000000001</v>
       </c>
-      <c r="W14" s="5"/>
+      <c r="W14" s="5">
+        <v>451.92099999999999</v>
+      </c>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
@@ -1783,7 +1846,7 @@
         <v>346.18100000000015</v>
       </c>
       <c r="G15" s="5">
-        <f t="shared" ref="G15:V15" si="18">G13-G14</f>
+        <f t="shared" ref="G15:W15" si="18">G13-G14</f>
         <v>385.08499999999992</v>
       </c>
       <c r="H15" s="5">
@@ -1810,7 +1873,10 @@
         <f t="shared" si="18"/>
         <v>463.49700000000007</v>
       </c>
-      <c r="N15" s="5"/>
+      <c r="N15" s="5">
+        <f t="shared" si="18"/>
+        <v>448.25600000000043</v>
+      </c>
       <c r="O15" s="5"/>
       <c r="P15" s="5">
         <f t="shared" si="18"/>
@@ -1840,7 +1906,10 @@
         <f t="shared" si="18"/>
         <v>1571.5920000000001</v>
       </c>
-      <c r="W15" s="5"/>
+      <c r="W15" s="5">
+        <f t="shared" si="18"/>
+        <v>1812.2810000000006</v>
+      </c>
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
@@ -1927,7 +1996,10 @@
         <f>+M15/M18</f>
         <v>1.1479261657036575</v>
       </c>
-      <c r="N17" s="8"/>
+      <c r="N17" s="8">
+        <f>+N15/N18</f>
+        <v>1.1101793352139477</v>
+      </c>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -1944,7 +2016,9 @@
       <c r="V17" s="5">
         <v>15.4</v>
       </c>
-      <c r="W17" s="5"/>
+      <c r="W17" s="5">
+        <v>15.4</v>
+      </c>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
@@ -1961,7 +2035,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="5">
-        <f t="shared" ref="C18:K18" si="21">C15/C17</f>
+        <f t="shared" ref="C18:H18" si="21">C15/C17</f>
         <v>101.93884057971012</v>
       </c>
       <c r="D18" s="5">
@@ -1998,7 +2072,9 @@
       <c r="M18" s="5">
         <v>403.76900000000001</v>
       </c>
-      <c r="N18" s="5"/>
+      <c r="N18" s="5">
+        <v>403.76900000000001</v>
+      </c>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -2066,7 +2142,7 @@
     </row>
     <row r="20" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -2102,12 +2178,12 @@
       </c>
       <c r="N20" s="10">
         <f t="shared" si="22"/>
-        <v>-1</v>
+        <v>6.252125638999817E-2</v>
       </c>
       <c r="O20" s="5"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7" t="e">
-        <f t="shared" ref="Q20:V20" si="23">+Q3/P3-1</f>
+        <f t="shared" ref="Q20:U20" si="23">+Q3/P3-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R20" s="7" t="e">
@@ -2130,7 +2206,10 @@
         <f>+V3/U3-1</f>
         <v>8.2363098854161043E-2</v>
       </c>
-      <c r="W20" s="5"/>
+      <c r="W20" s="7">
+        <f>+W3/V3-1</f>
+        <v>6.8434076573176572E-2</v>
+      </c>
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
@@ -2144,7 +2223,7 @@
     </row>
     <row r="21" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -2180,12 +2259,12 @@
       </c>
       <c r="N21" s="10">
         <f t="shared" ref="N21:N22" si="31">N5/J5-1</f>
-        <v>-1</v>
+        <v>0.13796818193999028</v>
       </c>
       <c r="O21" s="5"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7" t="e">
-        <f t="shared" ref="Q21:V21" si="32">+(Q4+Q5)/(+SUM(P4:P5))-1</f>
+        <f t="shared" ref="Q21:U21" si="32">+(Q4+Q5)/(+SUM(P4:P5))-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R21" s="7" t="e">
@@ -2208,7 +2287,10 @@
         <f>+(V4+V5)/(+SUM(U4:U5))-1</f>
         <v>0.11089996606969832</v>
       </c>
-      <c r="W21" s="5"/>
+      <c r="W21" s="7">
+        <f>+(W4+W5)/(+SUM(V4:V5))-1</f>
+        <v>0.10917249377878369</v>
+      </c>
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
@@ -2258,7 +2340,7 @@
       </c>
       <c r="N22" s="9">
         <f t="shared" si="31"/>
-        <v>-1</v>
+        <v>7.9612373453773699E-2</v>
       </c>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
@@ -2283,10 +2365,13 @@
         <v>0.12239035177343238</v>
       </c>
       <c r="V22" s="9">
-        <f t="shared" ref="V22" si="34">V6/U6-1</f>
+        <f t="shared" ref="V22:W22" si="34">V6/U6-1</f>
         <v>8.8573781822096187E-2</v>
       </c>
-      <c r="W22" s="6"/>
+      <c r="W22" s="9">
+        <f t="shared" si="34"/>
+        <v>7.7482112182264418E-2</v>
+      </c>
       <c r="X22" s="6"/>
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
@@ -2346,9 +2431,9 @@
         <f t="shared" ref="M23:N23" si="37">(M3-M7)/M3</f>
         <v>0.5004512296006618</v>
       </c>
-      <c r="N23" s="7" t="e">
+      <c r="N23" s="7">
         <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
+        <v>0.48981966631867169</v>
       </c>
       <c r="O23" s="5"/>
       <c r="P23" s="7" t="e">
@@ -2376,10 +2461,13 @@
         <v>0.47337878218911345</v>
       </c>
       <c r="V23" s="7">
-        <f t="shared" ref="V23" si="39">(V3-V7)/V3</f>
+        <f t="shared" ref="V23:W23" si="39">(V3-V7)/V3</f>
         <v>0.48225479320778991</v>
       </c>
-      <c r="W23" s="5"/>
+      <c r="W23" s="7">
+        <f t="shared" si="39"/>
+        <v>0.49337374419717578</v>
+      </c>
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
@@ -2439,9 +2527,9 @@
         <f t="shared" ref="M24:N24" si="43">(M5-M8)/M5</f>
         <v>0.52355297058748496</v>
       </c>
-      <c r="N24" s="7" t="e">
+      <c r="N24" s="7">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
+        <v>0.52015159222069451</v>
       </c>
       <c r="O24" s="5"/>
       <c r="P24" s="7" t="e">
@@ -2469,10 +2557,13 @@
         <v>0.47346739016563305</v>
       </c>
       <c r="V24" s="7">
-        <f t="shared" ref="V24" si="45">(V4+V5-V8)/(V4+V5)</f>
+        <f t="shared" ref="V24:W24" si="45">(V4+V5-V8)/(V4+V5)</f>
         <v>0.50965555292819431</v>
       </c>
-      <c r="W24" s="5"/>
+      <c r="W24" s="7">
+        <f t="shared" si="45"/>
+        <v>0.52407884918963099</v>
+      </c>
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
@@ -2532,9 +2623,9 @@
         <f t="shared" ref="M25:N25" si="49">M9/M6</f>
         <v>0.50565757012125367</v>
       </c>
-      <c r="N25" s="7" t="e">
+      <c r="N25" s="7">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
+        <v>0.49706221051321553</v>
       </c>
       <c r="O25" s="5"/>
       <c r="P25" s="7" t="e">
@@ -2562,10 +2653,13 @@
         <v>0.47339806657819644</v>
       </c>
       <c r="V25" s="7">
-        <f t="shared" ref="V25" si="51">V9/V6</f>
+        <f t="shared" ref="V25:W25" si="51">V9/V6</f>
         <v>0.48834052423693147</v>
       </c>
-      <c r="W25" s="5"/>
+      <c r="W25" s="7">
+        <f t="shared" si="51"/>
+        <v>0.50039394861656683</v>
+      </c>
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
@@ -2625,9 +2719,9 @@
         <f t="shared" ref="M26:N26" si="55">M11/M6</f>
         <v>0.23373546801862211</v>
       </c>
-      <c r="N26" s="7" t="e">
+      <c r="N26" s="7">
         <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
+        <v>0.22396174613480332</v>
       </c>
       <c r="O26" s="5"/>
       <c r="P26" s="7" t="e">
@@ -2655,10 +2749,13 @@
         <v>0.20448176443824698</v>
       </c>
       <c r="V26" s="7">
-        <f t="shared" ref="V26" si="57">V11/V6</f>
+        <f t="shared" ref="V26:W26" si="57">V11/V6</f>
         <v>0.21555861103107712</v>
       </c>
-      <c r="W26" s="5"/>
+      <c r="W26" s="7">
+        <f t="shared" si="57"/>
+        <v>0.22820935146106247</v>
+      </c>
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
@@ -2718,9 +2815,9 @@
         <f t="shared" ref="M27:N27" si="61">M15/M6</f>
         <v>0.1776422977672116</v>
       </c>
-      <c r="N27" s="7" t="e">
+      <c r="N27" s="7">
         <f t="shared" si="61"/>
-        <v>#DIV/0!</v>
+        <v>0.16803391146971208</v>
       </c>
       <c r="O27" s="5"/>
       <c r="P27" s="7" t="e">
@@ -2748,10 +2845,13 @@
         <v>0.15290668346686492</v>
       </c>
       <c r="V27" s="7">
-        <f t="shared" ref="V27" si="63">V15/V6</f>
+        <f t="shared" ref="V27:W27" si="63">V15/V6</f>
         <v>0.16376524430749803</v>
       </c>
-      <c r="W27" s="5"/>
+      <c r="W27" s="7">
+        <f t="shared" si="63"/>
+        <v>0.17526588751202715</v>
+      </c>
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
@@ -2811,9 +2911,9 @@
         <f t="shared" ref="M28:N28" si="67">M14/M13</f>
         <v>0.20964023477332638</v>
       </c>
-      <c r="N28" s="7" t="e">
+      <c r="N28" s="7">
         <f t="shared" si="67"/>
-        <v>#DIV/0!</v>
+        <v>0.22098659228556763</v>
       </c>
       <c r="O28" s="5"/>
       <c r="P28" s="7" t="e">
@@ -2841,10 +2941,13 @@
         <v>0.20385577634087509</v>
       </c>
       <c r="V28" s="7">
-        <f t="shared" ref="V28" si="69">V14/V13</f>
+        <f t="shared" ref="V28:W28" si="69">V14/V13</f>
         <v>0.20370686575785288</v>
       </c>
-      <c r="W28" s="5"/>
+      <c r="W28" s="7">
+        <f t="shared" si="69"/>
+        <v>0.19959394082330104</v>
+      </c>
       <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>

--- a/CTAS.xlsx
+++ b/CTAS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936F62F3-4F93-484D-BD79-6FCC3D499210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715C2827-E668-4712-A3B8-37B1506654E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{F251087B-52A6-4D65-A029-73EBA2C6E29C}"/>
   </bookViews>
@@ -231,7 +231,7 @@
     <t>Q426</t>
   </si>
   <si>
-    <t>FQ126</t>
+    <t>FQ226</t>
   </si>
 </sst>
 </file>
@@ -242,13 +242,19 @@
     <numFmt numFmtId="164" formatCode="#,##0.0;\(#,##0.0\)"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -319,28 +325,31 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -705,17 +714,17 @@
         <v>1</v>
       </c>
       <c r="K2" s="2">
-        <v>183</v>
+        <v>187.97</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="3">
-        <v>401.86667799999998</v>
-      </c>
-      <c r="L3" s="8" t="s">
+      <c r="K3" s="9">
+        <v>401.483</v>
+      </c>
+      <c r="L3" s="14" t="s">
         <v>64</v>
       </c>
     </row>
@@ -728,7 +737,7 @@
       </c>
       <c r="K4" s="3">
         <f>K3*K2</f>
-        <v>73541.602073999995</v>
+        <v>75466.759510000004</v>
       </c>
       <c r="L4" s="4"/>
     </row>
@@ -740,9 +749,9 @@
         <v>4</v>
       </c>
       <c r="K5" s="3">
-        <v>138.143</v>
-      </c>
-      <c r="L5" s="8" t="s">
+        <v>200.84200000000001</v>
+      </c>
+      <c r="L5" s="14" t="s">
         <v>64</v>
       </c>
     </row>
@@ -751,9 +760,10 @@
         <v>5</v>
       </c>
       <c r="K6" s="3">
-        <v>2425.7570000000001</v>
-      </c>
-      <c r="L6" s="8" t="s">
+        <f>2426.529+550.75</f>
+        <v>2977.279</v>
+      </c>
+      <c r="L6" s="14" t="s">
         <v>64</v>
       </c>
     </row>
@@ -763,7 +773,7 @@
       </c>
       <c r="K7" s="3">
         <f>K4-K5+K6</f>
-        <v>75829.216073999996</v>
+        <v>78243.196509999994</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -797,7 +807,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O19" sqref="O19"/>
+      <selection pane="bottomRight" activeCell="P20" sqref="P20:P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -941,7 +951,9 @@
       <c r="O3" s="9">
         <v>2091.0659999999998</v>
       </c>
-      <c r="P3" s="9"/>
+      <c r="P3" s="9">
+        <v>2155.4</v>
+      </c>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
@@ -1017,7 +1029,9 @@
       <c r="O4" s="9">
         <v>0</v>
       </c>
-      <c r="P4" s="9"/>
+      <c r="P4" s="9">
+        <v>0</v>
+      </c>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
@@ -1096,7 +1110,9 @@
       <c r="O5" s="9">
         <v>627.05600000000004</v>
       </c>
-      <c r="P5" s="9"/>
+      <c r="P5" s="9">
+        <v>644.59199999999998</v>
+      </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
@@ -1184,7 +1200,10 @@
         <f>+O3+O4+O5</f>
         <v>2718.1219999999998</v>
       </c>
-      <c r="P6" s="10"/>
+      <c r="P6" s="10">
+        <f>+P3+P4+P5</f>
+        <v>2799.9920000000002</v>
+      </c>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
       <c r="S6" s="9"/>
@@ -1277,7 +1296,9 @@
       <c r="O7" s="9">
         <v>1052.5530000000001</v>
       </c>
-      <c r="P7" s="9"/>
+      <c r="P7" s="9">
+        <v>1081.2180000000001</v>
+      </c>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
@@ -1356,7 +1377,9 @@
       <c r="O8" s="9">
         <v>299.00799999999998</v>
       </c>
-      <c r="P8" s="9"/>
+      <c r="P8" s="9">
+        <v>306.28899999999999</v>
+      </c>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
       <c r="S8" s="9"/>
@@ -1446,7 +1469,10 @@
         <f>O6-SUM(O7:O8)</f>
         <v>1366.5609999999997</v>
       </c>
-      <c r="P9" s="9"/>
+      <c r="P9" s="9">
+        <f>P6-SUM(P7:P8)</f>
+        <v>1412.4850000000001</v>
+      </c>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
@@ -1539,7 +1565,9 @@
       <c r="O10" s="9">
         <v>748.702</v>
       </c>
-      <c r="P10" s="9"/>
+      <c r="P10" s="9">
+        <v>756.77099999999996</v>
+      </c>
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
       <c r="S10" s="9"/>
@@ -1581,7 +1609,7 @@
         <v>440.11999999999989</v>
       </c>
       <c r="D11" s="9">
-        <f t="shared" ref="D11:O11" si="9">D9-D10</f>
+        <f t="shared" ref="D11:P11" si="9">D9-D10</f>
         <v>444.93400000000008</v>
       </c>
       <c r="E11" s="9">
@@ -1628,7 +1656,10 @@
         <f t="shared" si="9"/>
         <v>617.8589999999997</v>
       </c>
-      <c r="P11" s="9"/>
+      <c r="P11" s="9">
+        <f t="shared" si="9"/>
+        <v>655.71400000000017</v>
+      </c>
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
@@ -1731,7 +1762,10 @@
         <f>2.209-24.161</f>
         <v>-21.952000000000002</v>
       </c>
-      <c r="P12" s="9"/>
+      <c r="P12" s="9">
+        <f>0.866-28.076</f>
+        <v>-27.21</v>
+      </c>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -1825,7 +1859,10 @@
         <f>O11+O12</f>
         <v>595.9069999999997</v>
       </c>
-      <c r="P13" s="9"/>
+      <c r="P13" s="9">
+        <f>P11+P12</f>
+        <v>628.50400000000013</v>
+      </c>
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
@@ -1918,7 +1955,9 @@
       <c r="O14" s="9">
         <v>104.767</v>
       </c>
-      <c r="P14" s="9"/>
+      <c r="P14" s="9">
+        <v>133.161</v>
+      </c>
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
@@ -2007,7 +2046,10 @@
         <f t="shared" si="18"/>
         <v>491.1399999999997</v>
       </c>
-      <c r="P15" s="9"/>
+      <c r="P15" s="9">
+        <f t="shared" si="18"/>
+        <v>495.34300000000013</v>
+      </c>
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
@@ -2141,7 +2183,10 @@
         <f>+O15/O18</f>
         <v>1.2178272814734727</v>
       </c>
-      <c r="P17" s="11"/>
+      <c r="P17" s="11">
+        <f>+P15/P18</f>
+        <v>1.2337832486057942</v>
+      </c>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
       <c r="S17" s="9"/>
@@ -2222,7 +2267,9 @@
       <c r="O18" s="9">
         <v>403.29199999999997</v>
       </c>
-      <c r="P18" s="9"/>
+      <c r="P18" s="9">
+        <v>401.483</v>
+      </c>
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
@@ -2307,7 +2354,7 @@
         <v>7.6013151353656605E-2</v>
       </c>
       <c r="H20" s="12">
-        <f t="shared" ref="H20:O20" si="22">+H3/D3-1</f>
+        <f t="shared" ref="H20:P20" si="22">+H3/D3-1</f>
         <v>8.2196531318659005E-2</v>
       </c>
       <c r="I20" s="12">
@@ -2338,7 +2385,10 @@
         <f t="shared" si="22"/>
         <v>8.1303045393127382E-2</v>
       </c>
-      <c r="P20" s="12"/>
+      <c r="P20" s="12">
+        <f t="shared" si="22"/>
+        <v>8.2892469390728474E-2</v>
+      </c>
       <c r="Q20" s="12"/>
       <c r="R20" s="12"/>
       <c r="S20" s="9"/>
@@ -2419,14 +2469,17 @@
         <v>0.11044490313126154</v>
       </c>
       <c r="N21" s="12">
-        <f t="shared" ref="N21:O22" si="31">N5/J5-1</f>
+        <f t="shared" ref="N21:P22" si="31">N5/J5-1</f>
         <v>0.13796818193999028</v>
       </c>
       <c r="O21" s="12">
         <f t="shared" si="31"/>
         <v>0.10446183870308645</v>
       </c>
-      <c r="P21" s="12"/>
+      <c r="P21" s="12">
+        <f t="shared" si="31"/>
+        <v>0.12814571217050852</v>
+      </c>
       <c r="Q21" s="12"/>
       <c r="R21" s="12"/>
       <c r="S21" s="9"/>
@@ -2514,7 +2567,10 @@
         <f t="shared" si="31"/>
         <v>8.6559052313591289E-2</v>
       </c>
-      <c r="P22" s="13"/>
+      <c r="P22" s="13">
+        <f t="shared" si="31"/>
+        <v>9.2985627588285213E-2</v>
+      </c>
       <c r="Q22" s="13"/>
       <c r="R22" s="13"/>
       <c r="S22" s="10"/>
@@ -2611,10 +2667,13 @@
         <v>0.48981966631867169</v>
       </c>
       <c r="O23" s="12">
-        <f t="shared" ref="O23" si="38">(O3-O7)/O3</f>
+        <f t="shared" ref="O23:P23" si="38">(O3-O7)/O3</f>
         <v>0.49664286062706764</v>
       </c>
-      <c r="P23" s="12"/>
+      <c r="P23" s="12">
+        <f t="shared" si="38"/>
+        <v>0.49836782035817018</v>
+      </c>
       <c r="Q23" s="12"/>
       <c r="R23" s="12"/>
       <c r="S23" s="9"/>
@@ -2714,10 +2773,13 @@
         <v>0.52015159222069451</v>
       </c>
       <c r="O24" s="12">
-        <f t="shared" ref="O24" si="45">(O5-O8)/O5</f>
+        <f t="shared" ref="O24:P24" si="45">(O5-O8)/O5</f>
         <v>0.52315582659284021</v>
       </c>
-      <c r="P24" s="12"/>
+      <c r="P24" s="12">
+        <f t="shared" si="45"/>
+        <v>0.52483276242956789</v>
+      </c>
       <c r="Q24" s="12"/>
       <c r="R24" s="12"/>
       <c r="S24" s="9"/>
@@ -2817,10 +2879,13 @@
         <v>0.49706221051321553</v>
       </c>
       <c r="O25" s="12">
-        <f t="shared" ref="O25" si="52">O9/O6</f>
+        <f t="shared" ref="O25:P25" si="52">O9/O6</f>
         <v>0.5027592580465482</v>
       </c>
-      <c r="P25" s="12"/>
+      <c r="P25" s="12">
+        <f t="shared" si="52"/>
+        <v>0.50446036988677112</v>
+      </c>
       <c r="Q25" s="12"/>
       <c r="R25" s="12"/>
       <c r="S25" s="9"/>
@@ -2920,10 +2985,13 @@
         <v>0.22396174613480332</v>
       </c>
       <c r="O26" s="12">
-        <f t="shared" ref="O26" si="59">O11/O6</f>
+        <f t="shared" ref="O26:P26" si="59">O11/O6</f>
         <v>0.22731098898430599</v>
       </c>
-      <c r="P26" s="12"/>
+      <c r="P26" s="12">
+        <f t="shared" si="59"/>
+        <v>0.23418424052640155</v>
+      </c>
       <c r="Q26" s="12"/>
       <c r="R26" s="12"/>
       <c r="S26" s="9"/>
@@ -3023,10 +3091,13 @@
         <v>0.16803391146971208</v>
       </c>
       <c r="O27" s="12">
-        <f t="shared" ref="O27" si="66">O15/O6</f>
+        <f t="shared" ref="O27:P27" si="66">O15/O6</f>
         <v>0.18069093293089852</v>
       </c>
-      <c r="P27" s="12"/>
+      <c r="P27" s="12">
+        <f t="shared" si="66"/>
+        <v>0.17690871973919928</v>
+      </c>
       <c r="Q27" s="12"/>
       <c r="R27" s="12"/>
       <c r="S27" s="9"/>
@@ -3126,10 +3197,13 @@
         <v>0.22098659228556763</v>
       </c>
       <c r="O28" s="12">
-        <f t="shared" ref="O28" si="73">O14/O13</f>
+        <f t="shared" ref="O28:P28" si="73">O14/O13</f>
         <v>0.17581099064115718</v>
       </c>
-      <c r="P28" s="12"/>
+      <c r="P28" s="12">
+        <f t="shared" si="73"/>
+        <v>0.21186977330295428</v>
+      </c>
       <c r="Q28" s="12"/>
       <c r="R28" s="12"/>
       <c r="S28" s="9"/>
